--- a/biology/Médecine/Jean_Saidman/Jean_Saidman.xlsx
+++ b/biology/Médecine/Jean_Saidman/Jean_Saidman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Saidman, né le 19 novembre 1897[1] à Fălticeni (Roumanie) et mort le 6 juillet 1949 à Aix-les-Bains[2], est un médecin radiologue roumain naturalisé français en 1919.
-Spécialiste de l'actinothérapie (usage thérapeutique des rayons ultraviolets et infrarouges), premier président de la Société française de photobiologie, il imagina plusieurs dispositifs novateurs : le sensitomètre cutané, la plage artificielle dont il fit construire un premier exemplaire dans son Institut d'actinologie, et surtout trois extraordinaires solariums tournants qu'il fit bâtir à Aix-les-Bains, Vallauris ouvert le 29 décembre 1934[3], ainsi qu'à Jamnagar en Inde[4]. Seul, le bâtiment indien subsiste encore.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Saidman, né le 19 novembre 1897 à Fălticeni (Roumanie) et mort le 6 juillet 1949 à Aix-les-Bains, est un médecin radiologue roumain naturalisé français en 1919.
+Spécialiste de l'actinothérapie (usage thérapeutique des rayons ultraviolets et infrarouges), premier président de la Société française de photobiologie, il imagina plusieurs dispositifs novateurs : le sensitomètre cutané, la plage artificielle dont il fit construire un premier exemplaire dans son Institut d'actinologie, et surtout trois extraordinaires solariums tournants qu'il fit bâtir à Aix-les-Bains, Vallauris ouvert le 29 décembre 1934, ainsi qu'à Jamnagar en Inde. Seul, le bâtiment indien subsiste encore.
 </t>
         </is>
       </c>
